--- a/metadata/BirdGenomes2Select.xlsx
+++ b/metadata/BirdGenomes2Select.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u4269546/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083B07B7-477C-B248-9B68-DCD05323873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF1EA0-3BAF-614A-A6E5-020FC6BDB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="49920" windowHeight="22500" xr2:uid="{F44F0B26-2C05-1042-A910-B39CBBB4E497}"/>
+    <workbookView xWindow="620" yWindow="500" windowWidth="49920" windowHeight="22500" activeTab="1" xr2:uid="{F44F0B26-2C05-1042-A910-B39CBBB4E497}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="AvianGenomes" sheetId="2" r:id="rId1"/>
+    <sheet name="Selected" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="birdgenomes.xmlinfo" localSheetId="0">Sheet2!$A$1:$Z$98</definedName>
+    <definedName name="birdgenomes.xmlinfo" localSheetId="0">AvianGenomes!$A$1:$Z$98</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="915">
   <si>
     <t>docid</t>
   </si>
@@ -3251,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86A32DD-3CE6-9743-AAC4-0632B62BB1D7}">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10896,4 +10897,1364 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A87167-DF89-B643-86A8-AD2A875D4BAD}">
+  <dimension ref="A1:Z17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>890</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>10005361</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3">
+        <v>59729</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1049989968</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="3">
+        <v>6298149</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1056288117</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.59625294449847499</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>9158331</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9031</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1041139641</v>
+      </c>
+      <c r="V3" s="3">
+        <v>5621827</v>
+      </c>
+      <c r="W3" s="3">
+        <v>6570783</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1053332251</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.1575274552188699</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>5385531</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2593467</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="3">
+        <v>974839769</v>
+      </c>
+      <c r="V4" s="3">
+        <v>41327691</v>
+      </c>
+      <c r="W4" s="3">
+        <v>62724422</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1078891882</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>9.6443503502049701</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>12133881</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8957</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1267684018</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="3">
+        <v>130343937</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1398027955</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>9.3234142088381908</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>905371</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8954</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1027848436</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="3">
+        <v>84216033</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1112064469</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>7.5729452156428803</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>9931631</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3">
+        <v>33616</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1188003384</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="3">
+        <v>52176484</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1240179868</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>4.2071706972750098</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>8871851</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8790</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1199192330</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="3">
+        <v>48276462</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1247468792</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3.86995348577826</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9982011</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="3">
+        <v>223781</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1203332605</v>
+      </c>
+      <c r="V9" s="3">
+        <v>21744844</v>
+      </c>
+      <c r="W9" s="3">
+        <v>8645646</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1233723095</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2.4633153195531201</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9678061</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="3">
+        <v>176066</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1142328996</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="3">
+        <v>26254308</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1168583304</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>2.2466783420687899</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2350181</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9157</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="3">
+        <v>998332013</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="3">
+        <v>21978756</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1020310769</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>2.1541236913084001</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>6098431</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2489341</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1128516550</v>
+      </c>
+      <c r="V12" s="3">
+        <v>12224398</v>
+      </c>
+      <c r="W12" s="3">
+        <v>7874427</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1148615375</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1.7498307473030299</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2926781</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9244</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1050118677</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" s="3">
+        <v>9587563</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1059706240</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.90473780733800302</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>9678071</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12930</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1124865464</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="3">
+        <v>5527793</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1130393257</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.48901503664932</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>10039711</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E15" s="4">
+        <v>148594</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1199766751</v>
+      </c>
+      <c r="V15" s="4">
+        <v>5346908</v>
+      </c>
+      <c r="W15" s="4">
+        <v>10606002</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1215719661</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1.3122194624110699</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8408751</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="4">
+        <v>120794</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1191296248</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" s="4">
+        <v>4569736</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1195865984</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0.38212776859116598</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6720861</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>13146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>139</v>
+      </c>
+      <c r="R17" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" t="s">
+        <v>49</v>
+      </c>
+      <c r="U17">
+        <v>1106805518</v>
+      </c>
+      <c r="V17">
+        <v>18392348</v>
+      </c>
+      <c r="W17">
+        <v>46437785</v>
+      </c>
+      <c r="X17">
+        <v>1171635651</v>
+      </c>
+      <c r="Y17">
+        <v>5.5333014956199804</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metadata/BirdGenomes2Select.xlsx
+++ b/metadata/BirdGenomes2Select.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u4269546/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF1EA0-3BAF-614A-A6E5-020FC6BDB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3221FF3-FE71-6941-9C88-811EEE6E8241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="500" windowWidth="49920" windowHeight="22500" activeTab="1" xr2:uid="{F44F0B26-2C05-1042-A910-B39CBBB4E497}"/>
+    <workbookView xWindow="620" yWindow="500" windowWidth="44840" windowHeight="14740" activeTab="2" xr2:uid="{F44F0B26-2C05-1042-A910-B39CBBB4E497}"/>
   </bookViews>
   <sheets>
     <sheet name="AvianGenomes" sheetId="2" r:id="rId1"/>
     <sheet name="Selected" sheetId="3" r:id="rId2"/>
+    <sheet name="SpeciesTable" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="birdgenomes.xmlinfo" localSheetId="0">AvianGenomes!$A$1:$Z$98</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="995">
   <si>
     <t>docid</t>
   </si>
@@ -2820,6 +2821,246 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.cub.2018.10.050</t>
+  </si>
+  <si>
+    <t>#species</t>
+  </si>
+  <si>
+    <t>uniprotspeciescode</t>
+  </si>
+  <si>
+    <t>Common name</t>
+  </si>
+  <si>
+    <t>fasta</t>
+  </si>
+  <si>
+    <t>cds</t>
+  </si>
+  <si>
+    <t>gff</t>
+  </si>
+  <si>
+    <t>assemblyreport</t>
+  </si>
+  <si>
+    <t>ProcessingOrder</t>
+  </si>
+  <si>
+    <t>NCBITaxID</t>
+  </si>
+  <si>
+    <t>genomelength</t>
+  </si>
+  <si>
+    <t>contigs</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>meanlen</t>
+  </si>
+  <si>
+    <t>medianlen</t>
+  </si>
+  <si>
+    <t>longestlen</t>
+  </si>
+  <si>
+    <t>shortestlen</t>
+  </si>
+  <si>
+    <t>n50</t>
+  </si>
+  <si>
+    <t>n90</t>
+  </si>
+  <si>
+    <t>Chromosomes</t>
+  </si>
+  <si>
+    <t>Linkage Group</t>
+  </si>
+  <si>
+    <t>Mitochondrion</t>
+  </si>
+  <si>
+    <t>Unachored</t>
+  </si>
+  <si>
+    <t>PercentUnanchored</t>
+  </si>
+  <si>
+    <t>karyotype_2N</t>
+  </si>
+  <si>
+    <t>Assembled_N</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>phyloorder</t>
+  </si>
+  <si>
+    <t>CHICK</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>TAEGU</t>
+  </si>
+  <si>
+    <t>Zebra finch</t>
+  </si>
+  <si>
+    <t>Northern goshawk</t>
+  </si>
+  <si>
+    <t>ACCGE</t>
+  </si>
+  <si>
+    <t>FALPE</t>
+  </si>
+  <si>
+    <t>Peregrine falcon</t>
+  </si>
+  <si>
+    <t>GYMCA</t>
+  </si>
+  <si>
+    <t>California condor</t>
+  </si>
+  <si>
+    <t>DRONO</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>AQUCH</t>
+  </si>
+  <si>
+    <t>Golden Eagle</t>
+  </si>
+  <si>
+    <t>MYIMO</t>
+  </si>
+  <si>
+    <t>Monk parakeet</t>
+  </si>
+  <si>
+    <t>PARMJ</t>
+  </si>
+  <si>
+    <t>Great tit</t>
+  </si>
+  <si>
+    <t>STRHB</t>
+  </si>
+  <si>
+    <t>Kakapo</t>
+  </si>
+  <si>
+    <t>CALAN</t>
+  </si>
+  <si>
+    <t>Anna-s hummingbird</t>
+  </si>
+  <si>
+    <t>AMAAE</t>
+  </si>
+  <si>
+    <t>Blue-fronted Amazon parrot</t>
+  </si>
+  <si>
+    <t>FALNA</t>
+  </si>
+  <si>
+    <t>Lesser kestrel</t>
+  </si>
+  <si>
+    <t>Gyrfalcon</t>
+  </si>
+  <si>
+    <t>FALRU</t>
+  </si>
+  <si>
+    <t>MELUD</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Falco cherrug</t>
+  </si>
+  <si>
+    <t>FALCH</t>
+  </si>
+  <si>
+    <t>Saker falcon</t>
+  </si>
+  <si>
+    <t>MALCY</t>
+  </si>
+  <si>
+    <t>Superb fairywren</t>
+  </si>
+  <si>
+    <t>LOCAL:/g/data/xl04/hrp561/saker.v6.genome.chr.remask.fa.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/003/957/565/GCF_003957565.2_bTaeGut1.4.pri/GCF_003957565.2_bTaeGut1.4.pri_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/016/699/485/GCF_016699485.2_bGalGal1.mat.broiler.GRCg7b/GCF_016699485.2_bGalGal1.mat.broiler.GRCg7b_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/009/741/485/GCA_009741485.1_mCya_1.0/GCA_009741485.1_mCya_1.0_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/929/443/795/GCA_929443795.1_bAccGen1.1/GCA_929443795.1_bAccGen1.1_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/001/887/755/GCA_001887755.1_falPer2/GCA_001887755.1_falPer2_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/018/139/145/GCA_018139145.1_ASM1813914v1/GCA_018139145.1_ASM1813914v1_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/016/128/335/GCA_016128335.1_ZJU1.0/GCA_016128335.1_ZJU1.0_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/900/496/995/GCF_900496995.4_bAquChr1.4/GCF_900496995.4_bAquChr1.4_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/017/639/245/GCA_017639245.1_MMon_1.0/GCA_017639245.1_MMon_1.0_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/001/522/545/GCF_001522545.3_Parus_major1.1/GCF_001522545.3_Parus_major1.1_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/004/027/225/GCF_004027225.2_bStrHab1.2.pri/GCF_004027225.2_bStrHab1.2.pri_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/003/957/555/GCF_003957555.1_bCalAnn1_v1.p/GCF_003957555.1_bCalAnn1_v1.p_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/017/639/355/GCA_017639355.1_Aaes_hic/GCA_017639355.1_Aaes_hic_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/017/639/655/GCF_017639655.2_bFalNau1.pat/GCF_017639655.2_bFalNau1.pat_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/015/220/075/GCF_015220075.1_bFalRus1.pri/GCF_015220075.1_bFalRus1.pri_genomic.fna.gz</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/012/275/295/GCF_012275295.1_bMelUnd1.mat.Z/GCF_012275295.1_bMelUnd1.mat.Z_genomic.fna.gz</t>
   </si>
 </sst>
 </file>
@@ -10903,13 +11144,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A87167-DF89-B643-86A8-AD2A875D4BAD}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -12257,4 +12501,499 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE40A0-46FD-ED44-9258-F70DCBD68873}">
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H1" t="s">
+        <v>922</v>
+      </c>
+      <c r="I1" t="s">
+        <v>923</v>
+      </c>
+      <c r="J1" t="s">
+        <v>924</v>
+      </c>
+      <c r="K1" t="s">
+        <v>925</v>
+      </c>
+      <c r="L1" t="s">
+        <v>926</v>
+      </c>
+      <c r="M1" t="s">
+        <v>927</v>
+      </c>
+      <c r="N1" t="s">
+        <v>928</v>
+      </c>
+      <c r="O1" t="s">
+        <v>929</v>
+      </c>
+      <c r="P1" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>931</v>
+      </c>
+      <c r="R1" t="s">
+        <v>932</v>
+      </c>
+      <c r="S1" t="s">
+        <v>933</v>
+      </c>
+      <c r="T1" t="s">
+        <v>934</v>
+      </c>
+      <c r="U1" t="s">
+        <v>935</v>
+      </c>
+      <c r="V1" t="s">
+        <v>936</v>
+      </c>
+      <c r="W1" t="s">
+        <v>937</v>
+      </c>
+      <c r="X1" t="s">
+        <v>938</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>939</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>940</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D2" t="s">
+        <v>979</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>59729</v>
+      </c>
+      <c r="J2">
+        <v>1056288117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C3" t="s">
+        <v>944</v>
+      </c>
+      <c r="D3" t="s">
+        <v>980</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>9031</v>
+      </c>
+      <c r="J3">
+        <v>1053332251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C4" t="s">
+        <v>977</v>
+      </c>
+      <c r="D4" t="s">
+        <v>981</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2593467</v>
+      </c>
+      <c r="J4">
+        <v>1078891882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>948</v>
+      </c>
+      <c r="C5" t="s">
+        <v>947</v>
+      </c>
+      <c r="D5" t="s">
+        <v>982</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>8957</v>
+      </c>
+      <c r="J5">
+        <v>1398027955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B6" t="s">
+        <v>949</v>
+      </c>
+      <c r="C6" t="s">
+        <v>950</v>
+      </c>
+      <c r="D6" t="s">
+        <v>983</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>8954</v>
+      </c>
+      <c r="J6">
+        <v>1112064469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>951</v>
+      </c>
+      <c r="C7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D7" t="s">
+        <v>984</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>33616</v>
+      </c>
+      <c r="J7">
+        <v>1240179868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>805</v>
+      </c>
+      <c r="B8" t="s">
+        <v>953</v>
+      </c>
+      <c r="C8" t="s">
+        <v>954</v>
+      </c>
+      <c r="D8" t="s">
+        <v>985</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>8790</v>
+      </c>
+      <c r="J8">
+        <v>1247468792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>955</v>
+      </c>
+      <c r="C9" t="s">
+        <v>956</v>
+      </c>
+      <c r="D9" t="s">
+        <v>986</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>223781</v>
+      </c>
+      <c r="J9">
+        <v>1233723095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C10" t="s">
+        <v>958</v>
+      </c>
+      <c r="D10" t="s">
+        <v>987</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>176066</v>
+      </c>
+      <c r="J10">
+        <v>1168583304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>959</v>
+      </c>
+      <c r="C11" t="s">
+        <v>960</v>
+      </c>
+      <c r="D11" t="s">
+        <v>988</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9157</v>
+      </c>
+      <c r="J11">
+        <v>1020310769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>961</v>
+      </c>
+      <c r="C12" t="s">
+        <v>962</v>
+      </c>
+      <c r="D12" t="s">
+        <v>989</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>2489341</v>
+      </c>
+      <c r="J12">
+        <v>1148615375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>963</v>
+      </c>
+      <c r="C13" t="s">
+        <v>964</v>
+      </c>
+      <c r="D13" t="s">
+        <v>990</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>9244</v>
+      </c>
+      <c r="J13">
+        <v>1059706240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>965</v>
+      </c>
+      <c r="C14" t="s">
+        <v>966</v>
+      </c>
+      <c r="D14" t="s">
+        <v>991</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>12930</v>
+      </c>
+      <c r="J14">
+        <v>1130393257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C15" t="s">
+        <v>968</v>
+      </c>
+      <c r="D15" t="s">
+        <v>992</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>148594</v>
+      </c>
+      <c r="J15">
+        <v>1215719661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>970</v>
+      </c>
+      <c r="C16" t="s">
+        <v>969</v>
+      </c>
+      <c r="D16" t="s">
+        <v>993</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>120794</v>
+      </c>
+      <c r="J16">
+        <v>1195865984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C17" t="s">
+        <v>972</v>
+      </c>
+      <c r="D17" t="s">
+        <v>994</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>13146</v>
+      </c>
+      <c r="J17">
+        <v>1171635651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>973</v>
+      </c>
+      <c r="B18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C18" t="s">
+        <v>975</v>
+      </c>
+      <c r="D18" t="s">
+        <v>978</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>345164</v>
+      </c>
+      <c r="J18">
+        <v>1212003332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>